--- a/resources/wheels/226 - Черенков И.xlsx
+++ b/resources/wheels/226 - Черенков И.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -712,16 +712,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -920,9 +920,9 @@
       <c r="F16" s="19">
         <v>1.8</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>3.2</v>
+        <v>8.215</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -944,7 +944,9 @@
       <c r="E18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G18" s="19"/>
       <c r="H18" s="1"/>
     </row>
@@ -954,7 +956,9 @@
       <c r="E19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G19" s="19"/>
       <c r="H19" s="1"/>
     </row>
@@ -964,7 +968,9 @@
       <c r="E20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G20" s="19"/>
       <c r="H20" s="1"/>
     </row>
@@ -1525,16 +1531,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1733,9 +1739,9 @@
       <c r="F16" s="19">
         <v>21.3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>30.5</v>
+        <v>35.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1829,7 +1835,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1839,7 +1847,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1849,7 +1859,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -2368,16 +2380,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2576,9 +2588,9 @@
       <c r="F16" s="19">
         <v>64.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>73.400000000000006</v>
+        <v>78.415</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2672,7 +2684,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -2682,7 +2696,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -2692,7 +2708,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -3211,16 +3229,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3419,9 +3437,9 @@
       <c r="F16" s="19">
         <v>44.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>53.29999999999999</v>
+        <v>58.31499999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3515,7 +3533,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -3525,7 +3545,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -3535,7 +3557,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4054,16 +4078,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4262,9 +4286,9 @@
       <c r="F16" s="19">
         <v>21.3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>30.5</v>
+        <v>35.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4358,7 +4382,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -4368,7 +4394,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -4378,7 +4406,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4897,16 +4927,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5105,9 +5135,9 @@
       <c r="F16" s="19">
         <v>21.3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>30.5</v>
+        <v>35.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5201,7 +5231,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -5211,7 +5243,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -5221,7 +5255,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -5740,16 +5776,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5948,9 +5984,9 @@
       <c r="F16" s="19">
         <v>21.3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>30.5</v>
+        <v>35.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6044,7 +6080,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6054,7 +6092,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6064,7 +6104,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -6583,16 +6625,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6791,9 +6833,9 @@
       <c r="F16" s="19">
         <v>21.3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>30.5</v>
+        <v>35.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6887,7 +6929,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6897,7 +6941,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6907,7 +6953,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -7426,16 +7474,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7634,9 +7682,9 @@
       <c r="F16" s="19">
         <v>21.3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>30.5</v>
+        <v>35.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7730,7 +7778,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -7740,7 +7790,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -7750,7 +7802,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -8269,16 +8323,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8477,9 +8531,9 @@
       <c r="F16" s="19">
         <v>21.3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>30.5</v>
+        <v>35.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8573,7 +8627,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -8583,7 +8639,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -8593,7 +8651,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -9112,16 +9172,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9320,9 +9380,9 @@
       <c r="F16" s="19">
         <v>21.3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>30.5</v>
+        <v>35.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9416,7 +9476,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -9426,7 +9488,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -9436,7 +9500,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>

--- a/resources/wheels/226 - Черенков И.xlsx
+++ b/resources/wheels/226 - Черенков И.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="62">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -179,6 +179,42 @@
   </si>
   <si>
     <t>Белшина</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -706,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -922,7 +958,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>8.215</v>
+        <v>9.823</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -944,8 +980,8 @@
       <c r="E18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="19" t="n">
-        <v>0.0</v>
+      <c r="F18" s="19">
+        <v>0</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="1"/>
@@ -956,8 +992,8 @@
       <c r="E19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="19" t="n">
-        <v>2.435</v>
+      <c r="F19" s="19">
+        <v>2.4350000000000001</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="1"/>
@@ -968,7 +1004,7 @@
       <c r="E20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="19" t="n">
+      <c r="F20" s="19">
         <v>2.58</v>
       </c>
       <c r="G20" s="19"/>
@@ -980,7 +1016,9 @@
       <c r="E21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="19">
+        <v>1.5</v>
+      </c>
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
     </row>
@@ -990,7 +1028,9 @@
       <c r="E22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="19">
+        <v>0.108</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="H22" s="1"/>
     </row>
@@ -1000,20 +1040,30 @@
       <c r="E23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G23" s="19"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
+      <c r="E25" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -1021,6 +1071,9 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
@@ -1028,6 +1081,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
@@ -1035,19 +1091,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -1056,7 +1120,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -1065,7 +1131,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -1074,7 +1142,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -1083,7 +1153,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -1092,7 +1164,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -1526,7 +1600,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E24" sqref="E24:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1815,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>35.515</v>
+        <v>37.015</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1833,7 +1907,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>0.0</v>
@@ -1845,10 +1919,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <v>2.435</v>
+        <v>51</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.4350000000000001</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -1857,9 +1931,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" s="19">
         <v>2.58</v>
       </c>
       <c r="G26" s="19"/>
@@ -1869,9 +1943,11 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.5</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -1879,16 +1955,18 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.108</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
@@ -1896,7 +1974,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -1905,7 +1985,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -1914,7 +1996,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -1923,7 +2007,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -1932,7 +2018,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -1941,7 +2029,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -2375,7 +2465,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E24" sqref="E24:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2590,7 +2680,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>78.415</v>
+        <v>79.915</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2682,7 +2772,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>0.0</v>
@@ -2694,10 +2784,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <v>2.435</v>
+        <v>51</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.4350000000000001</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -2706,9 +2796,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" s="19">
         <v>2.58</v>
       </c>
       <c r="G26" s="19"/>
@@ -2718,9 +2808,11 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.5</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -2728,16 +2820,18 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.108</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
@@ -2745,7 +2839,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -2754,7 +2850,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -2763,7 +2861,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -2772,7 +2872,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -2781,7 +2883,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -2790,7 +2894,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -3224,7 +3330,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E24" sqref="E24:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3439,7 +3545,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>58.31499999999999</v>
+        <v>59.81499999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3531,7 +3637,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>0.0</v>
@@ -3543,10 +3649,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <v>2.435</v>
+        <v>51</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.4350000000000001</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -3555,9 +3661,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" s="19">
         <v>2.58</v>
       </c>
       <c r="G26" s="19"/>
@@ -3567,9 +3673,11 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.5</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -3577,16 +3685,18 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.108</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
@@ -3594,7 +3704,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -3603,7 +3715,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -3612,7 +3726,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -3621,7 +3737,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -3630,7 +3748,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -3639,7 +3759,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -4073,7 +4195,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E24" sqref="E24:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4288,7 +4410,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>35.515</v>
+        <v>37.015</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4380,7 +4502,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>0.0</v>
@@ -4392,10 +4514,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <v>2.435</v>
+        <v>51</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.4350000000000001</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -4404,9 +4526,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" s="19">
         <v>2.58</v>
       </c>
       <c r="G26" s="19"/>
@@ -4416,9 +4538,11 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.5</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -4426,16 +4550,18 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.108</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
@@ -4443,7 +4569,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -4452,7 +4580,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -4461,7 +4591,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -4470,7 +4602,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -4479,7 +4613,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -4488,7 +4624,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -4922,7 +5060,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E24" sqref="E24:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5137,7 +5275,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>35.515</v>
+        <v>37.015</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5229,7 +5367,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>0.0</v>
@@ -5241,10 +5379,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <v>2.435</v>
+        <v>51</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.4350000000000001</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -5253,9 +5391,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" s="19">
         <v>2.58</v>
       </c>
       <c r="G26" s="19"/>
@@ -5265,9 +5403,11 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.5</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -5275,16 +5415,18 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.108</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
@@ -5292,7 +5434,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -5301,7 +5445,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -5310,7 +5456,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -5319,7 +5467,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -5328,7 +5478,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -5337,7 +5489,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -5771,7 +5925,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E24" sqref="E24:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5986,7 +6140,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>35.515</v>
+        <v>37.015</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6078,7 +6232,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>0.0</v>
@@ -6090,10 +6244,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <v>2.435</v>
+        <v>51</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.4350000000000001</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -6102,9 +6256,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" s="19">
         <v>2.58</v>
       </c>
       <c r="G26" s="19"/>
@@ -6114,9 +6268,11 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.5</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -6124,16 +6280,18 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.108</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
@@ -6141,7 +6299,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -6150,7 +6310,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -6159,7 +6321,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -6168,7 +6332,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -6177,7 +6343,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -6186,7 +6354,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -6620,7 +6790,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E24" sqref="E24:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6835,7 +7005,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>35.515</v>
+        <v>37.015</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6927,7 +7097,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>0.0</v>
@@ -6939,10 +7109,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <v>2.435</v>
+        <v>51</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.4350000000000001</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -6951,9 +7121,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" s="19">
         <v>2.58</v>
       </c>
       <c r="G26" s="19"/>
@@ -6963,9 +7133,11 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.5</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -6973,16 +7145,18 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.108</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
@@ -6990,7 +7164,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -6999,7 +7175,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -7008,7 +7186,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -7017,7 +7197,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -7026,7 +7208,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -7035,7 +7219,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -7469,7 +7655,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E24" sqref="E24:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7684,7 +7870,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>35.515</v>
+        <v>37.015</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7776,7 +7962,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>0.0</v>
@@ -7788,10 +7974,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <v>2.435</v>
+        <v>51</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.4350000000000001</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -7800,9 +7986,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" s="19">
         <v>2.58</v>
       </c>
       <c r="G26" s="19"/>
@@ -7812,9 +7998,11 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.5</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -7822,16 +8010,18 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.108</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
@@ -7839,7 +8029,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -7848,7 +8040,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -7857,7 +8051,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -7866,7 +8062,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -7875,7 +8073,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -7884,7 +8084,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -8318,7 +8520,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E24" sqref="E24:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8533,7 +8735,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>35.515</v>
+        <v>37.015</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8625,7 +8827,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>0.0</v>
@@ -8637,10 +8839,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <v>2.435</v>
+        <v>51</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.4350000000000001</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -8649,9 +8851,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" s="19">
         <v>2.58</v>
       </c>
       <c r="G26" s="19"/>
@@ -8661,9 +8863,11 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.5</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -8671,16 +8875,18 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.108</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
@@ -8688,7 +8894,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -8697,7 +8905,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -8706,7 +8916,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -8715,7 +8927,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -8724,7 +8938,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -8733,7 +8949,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -9167,7 +9385,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E24" sqref="E24:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9382,7 +9600,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>35.515</v>
+        <v>37.015</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9474,7 +9692,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>0.0</v>
@@ -9486,10 +9704,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <v>2.435</v>
+        <v>51</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.4350000000000001</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -9498,9 +9716,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" s="19">
         <v>2.58</v>
       </c>
       <c r="G26" s="19"/>
@@ -9510,9 +9728,11 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1.5</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -9520,16 +9740,18 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.108</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="E29" s="17" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
@@ -9537,7 +9759,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -9546,7 +9770,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -9555,7 +9781,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -9564,7 +9792,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -9573,7 +9803,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -9582,7 +9814,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
